--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466366.5754589831</v>
+        <v>469638.3980738981</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346305</v>
+        <v>3854815.05046239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630677.090264363</v>
+        <v>7575516.210059898</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>288.0880102348222</v>
+        <v>161.4085122120584</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -722,7 +724,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>285.8222677061717</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>308.335012083601</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>87.41444223540492</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>372.4089305243864</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1142,16 +1144,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>183.2893540640418</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802219</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1348,10 +1350,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>324.9715861915192</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>25.35996799970722</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>289.1043232126787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>336.6327140501638</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>93.76149455263254</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>78.39762574353958</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.12369050152974</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>265.8290463810504</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>304.348098452407</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>86.48037677516179</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>126.9583492414532</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>357.5058497656024</v>
       </c>
     </row>
     <row r="24">
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="D25" t="n">
-        <v>92.65523704301675</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>19.73044033344715</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>358.694507948192</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>87.95308749070813</v>
+        <v>133.5207356555238</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.2149556263774</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.7480363891213</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>79.92938740919254</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>37.1082026450373</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>215.1013887364637</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>305.6096491809507</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7540220763315483</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>292.7899906785036</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>220.5507645688951</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>179.8681131105074</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>320.2344011398815</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>148.8671825094644</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>320.2430998025018</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="42">
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
@@ -3955,13 +3957,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.5228301990665</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>121.3691205752644</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>116.876383545772</v>
+        <v>116.8763835457725</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.3109602377277</v>
+        <v>210.351871325845</v>
       </c>
       <c r="C2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>1848.402259356717</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V2" t="n">
-        <v>1506.295450060236</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W2" t="n">
-        <v>1135.296415028523</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X2" t="n">
-        <v>1135.296415028523</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.8057059491246</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
         <v>160.427952321271</v>
@@ -4413,46 +4415,46 @@
         <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195842</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.492043226187</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N3" t="n">
-        <v>1229.492043226187</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1746.012325817167</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4516,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.7200269761704</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C5" t="n">
-        <v>602.544525479101</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D5" t="n">
-        <v>602.544525479101</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E5" t="n">
-        <v>602.544525479101</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>185.6500870090788</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1792.705481766966</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1792.705481766966</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.214772687567</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>71.09994889437468</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>554.6660347926879</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.16403979929</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N6" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
         <v>2341.731461975244</v>
@@ -4686,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>100.8850758683575</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1965.153759365783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.978257868714</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D8" t="n">
-        <v>1186.537129085382</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>783.9536042019261</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
         <v>429.4892645340348</v>
@@ -4875,58 +4877,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>513.9042144752598</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C11" t="n">
-        <v>513.9042144752598</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>1681.888704297768</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V11" t="n">
-        <v>1681.888704297768</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W11" t="n">
-        <v>1310.889669266056</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X11" t="n">
-        <v>1310.889669266056</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y11" t="n">
-        <v>914.3989601866567</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>643.9940382195844</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>1229.492043226187</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.990048232789</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.51033082377</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1673.129190464088</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C14" t="n">
-        <v>1279.953688967018</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D14" t="n">
         <v>1279.953688967018</v>
@@ -5267,61 +5269,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303387</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>2073.623936175485</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>1549.231189288413</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1960.027136360782</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U17" t="n">
-        <v>2270.939924720986</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V17" t="n">
-        <v>1928.833115424504</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W17" t="n">
-        <v>1557.834080392792</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X17" t="n">
-        <v>1168.381475325849</v>
+        <v>783.8367236760574</v>
       </c>
       <c r="Y17" t="n">
-        <v>771.8907662464499</v>
+        <v>387.3460145966586</v>
       </c>
     </row>
     <row r="18">
@@ -5586,22 +5588,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J18" t="n">
-        <v>160.427952321271</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K18" t="n">
-        <v>480.1670983834974</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L18" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>963.7331842818107</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N18" t="n">
         <v>1443.506853769801</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>294.7565449551684</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5695,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S19" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T19" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U19" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V19" t="n">
-        <v>479.9645636464696</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W19" t="n">
-        <v>479.9645636464696</v>
+        <v>102.9934655576342</v>
       </c>
       <c r="X19" t="n">
-        <v>479.9645636464696</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.9645636464696</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1205.680141491103</v>
+        <v>718.4106832486864</v>
       </c>
       <c r="C20" t="n">
-        <v>1205.680141491103</v>
+        <v>718.4106832486864</v>
       </c>
       <c r="D20" t="n">
-        <v>1205.680141491103</v>
+        <v>718.4106832486864</v>
       </c>
       <c r="E20" t="n">
-        <v>803.0966166076471</v>
+        <v>315.8271583652309</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>315.8271583652309</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2882.455782765193</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U20" t="n">
-        <v>2626.703053199792</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.59624390331</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="W20" t="n">
-        <v>1913.597208871598</v>
+        <v>1515.396138039482</v>
       </c>
       <c r="X20" t="n">
-        <v>1606.1748872025</v>
+        <v>1515.396138039482</v>
       </c>
       <c r="Y20" t="n">
-        <v>1606.1748872025</v>
+        <v>1118.905428960083</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2617.701509630227</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C22" t="n">
-        <v>2447.496391696216</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D22" t="n">
-        <v>2291.863278598731</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S22" t="n">
-        <v>2903.140301388325</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="T22" t="n">
-        <v>2903.140301388325</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="U22" t="n">
-        <v>2617.701509630227</v>
+        <v>1877.393629501629</v>
       </c>
       <c r="V22" t="n">
-        <v>2617.701509630227</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="W22" t="n">
-        <v>2617.701509630227</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="X22" t="n">
-        <v>2617.701509630227</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="Y22" t="n">
-        <v>2617.701509630227</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1747.083653812648</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C23" t="n">
-        <v>1747.083653812648</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D23" t="n">
-        <v>1747.083653812648</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E23" t="n">
-        <v>1344.500128929193</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F23" t="n">
-        <v>927.6056904591704</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>514.4429349471736</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>190.3598845136643</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2460.189498140842</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>2118.082688844361</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W23" t="n">
-        <v>1747.083653812648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X23" t="n">
-        <v>1747.083653812648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y23" t="n">
-        <v>1747.083653812648</v>
+        <v>2004.531485111924</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1493.196009291336</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.8490770607943</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C25" t="n">
-        <v>636.8490770607943</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D25" t="n">
-        <v>543.2579285324946</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E25" t="n">
-        <v>387.699116391697</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F25" t="n">
-        <v>230.37318160467</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>839.6651608782449</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S25" t="n">
-        <v>636.8490770607943</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T25" t="n">
-        <v>636.8490770607943</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U25" t="n">
-        <v>636.8490770607943</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V25" t="n">
-        <v>636.8490770607943</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W25" t="n">
-        <v>636.8490770607943</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X25" t="n">
-        <v>636.8490770607943</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.8490770607943</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1177.734277544119</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="C26" t="n">
-        <v>784.5587760470498</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D26" t="n">
-        <v>784.5587760470498</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E26" t="n">
-        <v>784.5587760470498</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V26" t="n">
-        <v>2345.718767366628</v>
+        <v>1985.54878206622</v>
       </c>
       <c r="W26" t="n">
-        <v>1974.719732334915</v>
+        <v>1614.549747034507</v>
       </c>
       <c r="X26" t="n">
-        <v>1974.719732334915</v>
+        <v>1614.549747034507</v>
       </c>
       <c r="Y26" t="n">
-        <v>1578.229023255516</v>
+        <v>1252.232062238354</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212711</v>
+        <v>160.4279523212709</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L27" t="n">
-        <v>963.7331842818107</v>
+        <v>963.7331842818106</v>
       </c>
       <c r="M27" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>306.3595905514212</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C28" t="n">
-        <v>136.1544726174104</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>528.4517709299225</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6415,19 +6417,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X28" t="n">
-        <v>714.6796704260792</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y28" t="n">
-        <v>491.5676092427225</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.9296003819453</v>
+        <v>1485.900427359798</v>
       </c>
       <c r="C29" t="n">
-        <v>432.7540988848759</v>
+        <v>1485.900427359798</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154361</v>
+        <v>1100.459298576465</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>697.8757736930099</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>697.8757736930099</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="W29" t="n">
-        <v>2012.367660239684</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.915055172741</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="Y29" t="n">
-        <v>1226.424346093342</v>
+        <v>1886.395173071195</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6536,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>194.5661265746808</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>678.1322124729941</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1263.630217479596</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N30" t="n">
         <v>1849.128222486198</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1634.406600469638</v>
+        <v>350.6125133984765</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>868.0232376843157</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>868.0232376843157</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>868.0232376843157</v>
       </c>
       <c r="U31" t="n">
-        <v>2080.209713319081</v>
+        <v>868.0232376843157</v>
       </c>
       <c r="V31" t="n">
-        <v>2080.209713319081</v>
+        <v>868.0232376843157</v>
       </c>
       <c r="W31" t="n">
-        <v>2080.209713319081</v>
+        <v>584.6928356154934</v>
       </c>
       <c r="X31" t="n">
-        <v>2042.726680344296</v>
+        <v>350.6125133984765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1819.61461916094</v>
+        <v>350.6125133984765</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.663050286385</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C32" t="n">
-        <v>1175.487548789315</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D32" t="n">
-        <v>1175.487548789315</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E32" t="n">
-        <v>772.9040239058595</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F32" t="n">
-        <v>356.0095854358373</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>1378.336361148353</v>
       </c>
       <c r="Y32" t="n">
-        <v>1969.157795997781</v>
+        <v>981.8456520689545</v>
       </c>
     </row>
     <row r="33">
@@ -6771,16 +6773,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L33" t="n">
         <v>530.8790559998569</v>
@@ -6789,13 +6791,13 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1946.360164168862</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C34" t="n">
-        <v>1776.155046234851</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D34" t="n">
-        <v>1620.521933137366</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.963120996568</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W34" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X34" t="n">
-        <v>2131.568182860163</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y34" t="n">
-        <v>2131.568182860163</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1575.70115429884</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="C35" t="n">
-        <v>1279.953688967018</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L35" t="n">
-        <v>864.7645682749193</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M35" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N35" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.195900010237</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y35" t="n">
-        <v>1976.195900010237</v>
+        <v>1007.337326116641</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S37" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="T37" t="n">
-        <v>948.7599926430961</v>
+        <v>1803.21238006054</v>
       </c>
       <c r="U37" t="n">
-        <v>663.3212008849971</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="V37" t="n">
-        <v>397.3418557058213</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="W37" t="n">
-        <v>114.011453636999</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1575.70115429884</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="C38" t="n">
-        <v>1575.70115429884</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="D38" t="n">
-        <v>1190.260025515508</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="E38" t="n">
-        <v>787.6765006320522</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="F38" t="n">
-        <v>370.78206216203</v>
+        <v>610.8466170372419</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>197.683861525245</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>173.6308686433316</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>666.9511603618604</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X38" t="n">
-        <v>1976.195900010237</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y38" t="n">
-        <v>1976.195900010237</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631986</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P39" t="n">
         <v>2365.648505077179</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>1951.406783011508</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W40" t="n">
-        <v>1951.406783011508</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X40" t="n">
-        <v>1951.406783011508</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1641.675880777398</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C41" t="n">
-        <v>1248.500379280328</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D41" t="n">
-        <v>863.0592504969959</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E41" t="n">
-        <v>460.4757256135405</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F41" t="n">
         <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L41" t="n">
-        <v>666.9511603618604</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M41" t="n">
-        <v>1212.952060406441</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N41" t="n">
-        <v>1740.763344043903</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O41" t="n">
-        <v>2180.802944936232</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X41" t="n">
-        <v>2042.170626488795</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y41" t="n">
-        <v>2042.170626488795</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L42" t="n">
-        <v>367.0521161637701</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>623.643757208308</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.14176221491</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.648505077179</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7594,25 +7596,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>224.7860652357804</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>845.5298891371201</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C44" t="n">
-        <v>845.5298891371201</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D44" t="n">
-        <v>845.5298891371201</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E44" t="n">
-        <v>442.9463642536647</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F44" t="n">
-        <v>442.9463642536647</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>391.4891685264335</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L44" t="n">
-        <v>793.7609732012081</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M44" t="n">
-        <v>793.7609732012081</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N44" t="n">
-        <v>1196.032777875983</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O44" t="n">
-        <v>1598.304582550757</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.340624948584</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.340624948584</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y44" t="n">
-        <v>1246.024634848517</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.6075338279917</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>168.953303388084</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>168.953303388084</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>145.6217947186991</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>145.6217947186991</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L45" t="n">
-        <v>547.8935993934737</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M45" t="n">
-        <v>950.1654040682483</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N45" t="n">
-        <v>950.1654040682483</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O45" t="n">
-        <v>988.7037287189191</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.975533393694</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.745553660438</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1292.68241033908</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1070.142408710147</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>840.0251628434341</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>650.7180851934459</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4038682689531</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U46" t="n">
-        <v>1507.283671872047</v>
+        <v>2247.591552000642</v>
       </c>
       <c r="V46" t="n">
-        <v>1241.304326692871</v>
+        <v>1981.612206821466</v>
       </c>
       <c r="W46" t="n">
-        <v>957.9739246240489</v>
+        <v>1698.281804752643</v>
       </c>
       <c r="X46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535627</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>427.440794103012</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7991,7 +7993,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>359.5215849845337</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8061,19 +8063,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>553.2668652653155</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>476.2460796729735</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8228,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8295,16 +8297,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>113.6241866392233</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>614.5750717350724</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4970894367924</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>588.303013563887</v>
+        <v>595.8073947006745</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>331.0195299270391</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>121.5663691156888</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8930,7 +8932,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>427.440794103012</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>500.3175139373677</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9240,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N18" t="n">
-        <v>569.9919810238536</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,22 +9479,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,22 +9719,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9887,10 +9889,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>194.0418287534719</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9960,13 +9962,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>500.3175139373679</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10118,13 +10120,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129054</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10188,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>124.0799396297069</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10349,7 +10351,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10358,13 +10360,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>644.863188498063</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,13 +10588,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>616.3484143223238</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10604,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10665,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M36" t="n">
-        <v>99.852421747409</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10823,7 +10825,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>270.6522400901343</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10835,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,22 +10904,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>99.85242174740807</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>633.0344498835105</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11075,10 +11077,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11139,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>351.5705978518755</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,22 +11299,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8989936612425</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>177.610580976104</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>498.722278286458</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
-        <v>131.6151595461321</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.1557362472765</v>
+        <v>227.8352342700403</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>95.76444978932722</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22844,7 +22846,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>58.95403259779442</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -22960,10 +22962,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>16.83481595771229</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>229.4361400212802</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>56.61513130397975</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23276,7 +23278,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>227.8352342700401</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.4214787759262</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>59.85708420411913</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23747,7 +23749,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23783,10 +23785,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>159.4337077171148</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>90.10544101113109</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>176.615828493317</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>143.2020815758265</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24026,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>81.20998056386674</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,13 +24129,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>67.52284724422772</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>85.99884522588803</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.995396497006567</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>35.01995222300252</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24366,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>115.4666820455249</v>
       </c>
       <c r="D25" t="n">
-        <v>61.42154492349364</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24500,7 +24502,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>318.9553008700697</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>33.83129404041284</v>
       </c>
     </row>
     <row r="27">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>66.12369447580227</v>
+        <v>20.55604631098657</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24655,7 +24657,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24664,10 +24666,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>85.81617233049946</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24731,22 +24733,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>17.54100829227411</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>42.73259206455626</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>194.6313163498094</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>181.3884095178192</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>103.4214787759261</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24971,16 +24973,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>154.9986533628252</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25126,19 +25128,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>96.45375580359513</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>192.1747295164269</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25208,13 +25210,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>102.7162907300107</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>88.79672681699532</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>171.9750374197098</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25445,19 +25447,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214576</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>65.31497921377189</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="42">
@@ -25834,7 +25836,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>87.62118754448957</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600601</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>2.695971719730778</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25925,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>17.00297178953838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.84485310781623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>165.708020294746</v>
+        <v>165.7080202947456</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335883</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335881</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335885</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738073.5399611334</v>
+        <v>655144.4844335885</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738073.5399611334</v>
+        <v>655144.4844335883</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655144.4844335882</v>
+        <v>655144.4844335881</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655144.4844335881</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655144.4844335885</v>
+        <v>655144.4844335883</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335885</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528042.1631476523</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>146808.4351127587</v>
       </c>
       <c r="C2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="D2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="E2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="F2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="G2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="H2" t="n">
-        <v>165389.4773788895</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="I2" t="n">
-        <v>165389.4773788895</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="J2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="K2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="L2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="M2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="N2" t="n">
         <v>146808.4351127587</v>
@@ -26353,7 +26355,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="P2" t="n">
-        <v>118329.9532475834</v>
+        <v>146808.4351127587</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="D4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="E4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="F4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="H4" t="n">
-        <v>13453.11359961299</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="I4" t="n">
-        <v>13453.11359961299</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="J4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="K4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="L4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="M4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="N4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="O4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="P4" t="n">
-        <v>9538.04248605437</v>
+        <v>11907.28194961662</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132880.110105776</v>
+        <v>-132880.1101057759</v>
       </c>
       <c r="C6" t="n">
         <v>65315.69588596889</v>
@@ -26528,40 +26530,40 @@
         <v>65315.69588596889</v>
       </c>
       <c r="E6" t="n">
-        <v>98943.29588596892</v>
+        <v>98943.29588596885</v>
       </c>
       <c r="F6" t="n">
-        <v>98943.29588596892</v>
+        <v>98943.29588596894</v>
       </c>
       <c r="G6" t="n">
-        <v>98943.2958859689</v>
+        <v>98943.29588596888</v>
       </c>
       <c r="H6" t="n">
-        <v>54790.3945167446</v>
+        <v>98943.29588596888</v>
       </c>
       <c r="I6" t="n">
-        <v>104725.8267241487</v>
+        <v>98943.29588596888</v>
       </c>
       <c r="J6" t="n">
-        <v>-7371.859732542966</v>
+        <v>-55796.1384796345</v>
       </c>
       <c r="K6" t="n">
-        <v>98943.29588596892</v>
+        <v>98943.29588596888</v>
       </c>
       <c r="L6" t="n">
-        <v>98943.2958859689</v>
+        <v>98943.29588596888</v>
       </c>
       <c r="M6" t="n">
-        <v>98943.2958859689</v>
+        <v>98943.29588596888</v>
       </c>
       <c r="N6" t="n">
-        <v>98943.29588596892</v>
+        <v>98943.29588596894</v>
       </c>
       <c r="O6" t="n">
-        <v>98943.2958859689</v>
+        <v>98943.29588596891</v>
       </c>
       <c r="P6" t="n">
-        <v>84086.73326231059</v>
+        <v>98943.29588596891</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1926243725203</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34711,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>209.9577475604372</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>389.1627148536588</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34948,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>24.02725130588997</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>529.2029588809057</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
-        <v>168.1956421958672</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>495.9158915145752</v>
+        <v>503.4202726513627</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>181.2944783293118</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>34.48300429637414</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>274.1926243725203</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>414.945401083201</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N18" t="n">
-        <v>484.6198681696869</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36607,10 +36609,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>44.47799132937547</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>414.9454010832013</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,13 +36840,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>357.1032624151781</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>34.48300429637357</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,13 +37080,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602789</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>463.1002445918322</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37324,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M36" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>127.5938369108969</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37555,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>479.7862801530189</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37795,10 +37797,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>259.1834758025636</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>406.3351562371461</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>27.30913373517882</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
-        <v>38.92760065724323</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>469638.3980738981</v>
+        <v>463930.242266012</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.05046239</v>
+        <v>3854815.050462387</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7575516.210059898</v>
+        <v>7575516.210059901</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>161.4085122120584</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>129.4406736556695</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>145.9951119230965</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>285.8222677061717</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>355.4442716357457</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540492</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>253.8243076884219</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>372.4089305243864</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1144,16 +1144,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.76539708586999</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.0154670505623</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>79.62618788877244</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>25.35996799970722</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.6587270277473</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>22.96189723698674</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>234.1844359198166</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.3663780557825</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1782,13 +1782,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>336.6327140501638</v>
+        <v>244.7832388294983</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>55.12369050152974</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>28.39170293447959</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>265.8290463810504</v>
+        <v>294.608142764402</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>145.7406737689587</v>
+        <v>74.92558984444302</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>90.86945539560995</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>357.5058497656024</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>343.5358964632136</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.694507948192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>133.5207356555238</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>323.2149556263774</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>39.35687723599629</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>79.92938740919254</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.1013887364637</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>99.54640789044457</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -3091,10 +3091,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>20.73986558322629</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>220.5507645688951</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>12.36035738136074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3331,10 +3331,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>179.8681131105074</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>176.6145834815769</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>63.41361258917228</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>148.8671825094644</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3571,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>159.3149947016329</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>104.517855709646</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3754,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>289.1043232126777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.7480363891204</v>
+        <v>298.82187832452</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>116.8763835457725</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.351871325845</v>
+        <v>2196.907436154955</v>
       </c>
       <c r="C2" t="n">
-        <v>47.31297010154359</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154359</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154359</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
@@ -4339,43 +4339,43 @@
         <v>550.9450990378335</v>
       </c>
       <c r="M2" t="n">
-        <v>1096.945999082414</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.757282719876</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511778</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2196.907436154955</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183584</v>
+        <v>2196.907436154955</v>
       </c>
       <c r="X2" t="n">
-        <v>1007.337326116641</v>
+        <v>2196.907436154955</v>
       </c>
       <c r="Y2" t="n">
-        <v>610.8466170372419</v>
+        <v>2196.907436154955</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M3" t="n">
-        <v>745.9259573278729</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4518,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>330.643372170366</v>
+        <v>515.8513908616673</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.663050286384</v>
+        <v>791.7887166987605</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.663050286384</v>
+        <v>791.7887166987605</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>406.3475879154282</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.157795997781</v>
+        <v>1192.283462410157</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1960.027136360782</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
         <v>2341.731461975244</v>
@@ -4688,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>882.0615091076409</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>882.0615091076409</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U7" t="n">
-        <v>596.6227173495417</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V7" t="n">
-        <v>330.643372170366</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>925.4485404827233</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>522.8650155992677</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>522.8650155992677</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>109.7022600872709</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>109.7022600872709</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154434</v>
       </c>
       <c r="J9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
         <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924706</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931308</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.283413522289</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>507.6880877875118</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>352.1292756467143</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>194.8033408596873</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>194.8033408596873</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440.488471598613</v>
+        <v>1336.665244811007</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154359</v>
+        <v>943.4897433139379</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154359</v>
+        <v>943.4897433139379</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>540.9062184304823</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>540.9062184304823</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>127.7434629184855</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U11" t="n">
-        <v>2340.032375784546</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.925566488064</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W11" t="n">
-        <v>1626.926531456352</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="X11" t="n">
-        <v>1237.473926389409</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="Y11" t="n">
-        <v>840.9832173100099</v>
+        <v>1336.665244811007</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1436.116207068685</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="C13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="D13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="E13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="F13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="G13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="H13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5229,22 +5229,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V13" t="n">
-        <v>77.69124027544164</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W13" t="n">
-        <v>77.69124027544164</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="X13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.69124027544164</v>
+        <v>102.5238054831065</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2058.57031924742</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="C14" t="n">
-        <v>1665.394817750351</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.953688967018</v>
+        <v>839.0944607516431</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.648505077179</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154359</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712866</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V17" t="n">
-        <v>1544.288363774713</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W17" t="n">
-        <v>1173.289328743001</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X17" t="n">
-        <v>783.8367236760574</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="Y17" t="n">
-        <v>387.3460145966586</v>
+        <v>1170.151689752058</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631988</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5697,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>386.3238676264566</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>386.3238676264566</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V19" t="n">
-        <v>386.3238676264566</v>
+        <v>244.2455118147037</v>
       </c>
       <c r="W19" t="n">
-        <v>102.9934655576342</v>
+        <v>244.2455118147037</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>244.2455118147037</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.4106832486864</v>
+        <v>1140.655979072374</v>
       </c>
       <c r="C20" t="n">
-        <v>718.4106832486864</v>
+        <v>747.4804775753041</v>
       </c>
       <c r="D20" t="n">
-        <v>718.4106832486864</v>
+        <v>747.4804775753041</v>
       </c>
       <c r="E20" t="n">
-        <v>315.8271583652309</v>
+        <v>344.8969526918486</v>
       </c>
       <c r="F20" t="n">
-        <v>315.8271583652309</v>
+        <v>344.8969526918486</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V20" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W20" t="n">
-        <v>1515.396138039482</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X20" t="n">
-        <v>1515.396138039482</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y20" t="n">
-        <v>1118.905428960083</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>272.5108437565968</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631988</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.648505077179</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S22" t="n">
-        <v>2162.832421259729</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T22" t="n">
-        <v>2162.832421259729</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U22" t="n">
-        <v>1877.393629501629</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V22" t="n">
-        <v>1611.414284322454</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.414284322454</v>
+        <v>256.0898094487516</v>
       </c>
       <c r="X22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1464.201482535627</v>
+        <v>180.4073954644657</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1604.036739400527</v>
+        <v>917.7169290643797</v>
       </c>
       <c r="C23" t="n">
-        <v>1604.036739400527</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="D23" t="n">
-        <v>1604.036739400527</v>
+        <v>139.1002987839779</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.453214517072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.648505077179</v>
+        <v>1714.702383855175</v>
       </c>
       <c r="Y23" t="n">
-        <v>2004.531485111924</v>
+        <v>1318.211674775777</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6171,28 +6171,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>100.8850758683575</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1252.232062238354</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.232062238354</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="D26" t="n">
-        <v>866.7909334550213</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E26" t="n">
-        <v>464.2074085715658</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
         <v>191.9627430103717</v>
@@ -6241,37 +6241,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T26" t="n">
-        <v>2327.655591362701</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U26" t="n">
-        <v>2327.655591362701</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V26" t="n">
-        <v>1985.54878206622</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.549747034507</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X26" t="n">
-        <v>1614.549747034507</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1252.232062238354</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212709</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>963.7331842818106</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1549.231189288413</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N27" t="n">
-        <v>1960.027136360782</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>528.4517709299225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6411,25 +6411,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V28" t="n">
-        <v>663.3212008849971</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.900427359798</v>
+        <v>828.0448804555765</v>
       </c>
       <c r="C29" t="n">
-        <v>1485.900427359798</v>
+        <v>828.0448804555765</v>
       </c>
       <c r="D29" t="n">
-        <v>1100.459298576465</v>
+        <v>828.0448804555765</v>
       </c>
       <c r="E29" t="n">
-        <v>697.8757736930099</v>
+        <v>828.0448804555765</v>
       </c>
       <c r="F29" t="n">
-        <v>697.8757736930099</v>
+        <v>411.1504419855543</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>411.1504419855543</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>87.06739155204491</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1397.797620547389</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1925.608904184851</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>1886.395173071195</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V29" t="n">
-        <v>1886.395173071195</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W29" t="n">
-        <v>1886.395173071195</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X29" t="n">
-        <v>1886.395173071195</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y29" t="n">
-        <v>1886.395173071195</v>
+        <v>828.0448804555765</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486198</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350.6125133984765</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6645,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>868.0232376843157</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>868.0232376843157</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>868.0232376843157</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U31" t="n">
-        <v>868.0232376843157</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V31" t="n">
-        <v>868.0232376843157</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W31" t="n">
-        <v>584.6928356154934</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>350.6125133984765</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>350.6125133984765</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>764.5715220321224</v>
+        <v>610.2850646046534</v>
       </c>
       <c r="C32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="D32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M32" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.421412053329</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O32" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2109.895775511778</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W32" t="n">
-        <v>1767.788966215297</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X32" t="n">
-        <v>1378.336361148353</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y32" t="n">
-        <v>981.8456520689545</v>
+        <v>610.2850646046534</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C34" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D34" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E34" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6885,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>927.81063346812</v>
       </c>
       <c r="T34" t="n">
-        <v>713.0409408113302</v>
+        <v>927.81063346812</v>
       </c>
       <c r="U34" t="n">
-        <v>427.6021490532311</v>
+        <v>927.81063346812</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6228038740554</v>
+        <v>661.8312882889443</v>
       </c>
       <c r="W34" t="n">
-        <v>47.31297010154359</v>
+        <v>661.8312882889443</v>
       </c>
       <c r="X34" t="n">
-        <v>47.31297010154359</v>
+        <v>427.7509660719273</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1007.337326116641</v>
+        <v>855.5572059581905</v>
       </c>
       <c r="C35" t="n">
-        <v>1007.337326116641</v>
+        <v>462.381704461121</v>
       </c>
       <c r="D35" t="n">
-        <v>1007.337326116641</v>
+        <v>462.381704461121</v>
       </c>
       <c r="E35" t="n">
-        <v>1007.337326116641</v>
+        <v>59.79817957766556</v>
       </c>
       <c r="F35" t="n">
-        <v>784.5587760470498</v>
+        <v>59.79817957766556</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>59.79817957766556</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>59.79817957766556</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L35" t="n">
-        <v>503.6092283712866</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M35" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N35" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.895775511778</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.788966215297</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W35" t="n">
-        <v>1396.789931183584</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X35" t="n">
-        <v>1007.337326116641</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="Y35" t="n">
-        <v>1007.337326116641</v>
+        <v>1256.051951669587</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I36" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5108437565968</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631988</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X36" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535627</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535627</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535627</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535627</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2241.747515709756</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S37" t="n">
-        <v>2038.931431892306</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T37" t="n">
-        <v>1803.21238006054</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U37" t="n">
-        <v>1621.527417322654</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V37" t="n">
-        <v>1621.527417322654</v>
+        <v>361.021642344264</v>
       </c>
       <c r="W37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y37" t="n">
-        <v>1621.527417322654</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>610.8466170372419</v>
+        <v>857.3829100686353</v>
       </c>
       <c r="C38" t="n">
-        <v>610.8466170372419</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="D38" t="n">
-        <v>610.8466170372419</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E38" t="n">
-        <v>610.8466170372419</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F38" t="n">
-        <v>610.8466170372419</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>197.683861525245</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V38" t="n">
-        <v>1767.788966215297</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W38" t="n">
-        <v>1396.789931183584</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X38" t="n">
-        <v>1007.337326116641</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y38" t="n">
-        <v>610.8466170372419</v>
+        <v>921.4370641991123</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154359</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P39" t="n">
         <v>2365.648505077179</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7362,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>787.8357555707396</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>504.5053535019172</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1673.129190464088</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="C41" t="n">
-        <v>1279.953688967018</v>
+        <v>1576.315112671863</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y41" t="n">
-        <v>2073.623936175485</v>
+        <v>1681.888704297768</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>1545.785408515688</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.875066013061</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O42" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7535,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>161.6228038740554</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>825.9296003819453</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C44" t="n">
-        <v>432.7540988848759</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D44" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E44" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>851.7967205028082</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W44" t="n">
-        <v>2012.367660239684</v>
+        <v>2063.808223941302</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.915055172741</v>
+        <v>1674.355618874358</v>
       </c>
       <c r="Y44" t="n">
-        <v>1226.424346093342</v>
+        <v>1277.86490979496</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N45" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P45" t="n">
         <v>2365.648505077179</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.648505077179</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>2247.591552000642</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>1981.612206821466</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W46" t="n">
-        <v>1698.281804752643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>359.5215849845337</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054172</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2668652653155</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8218,25 +8218,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,13 +8303,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>614.5750717350724</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8464,16 +8464,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>595.8073947006745</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>415.8062469585533</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N12" t="n">
-        <v>502.5559668112506</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8941,10 +8941,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140705</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536977</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9412,16 +9412,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>317.5329465084872</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,19 +9646,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>399.6354845339695</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9962,16 +9962,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>395.3134182086922</v>
       </c>
       <c r="N27" t="n">
-        <v>500.3175139373679</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10120,13 +10120,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>506.8283140129054</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,10 +10199,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>502.5559668112506</v>
+        <v>151.5659933015353</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10354,13 +10354,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>644.863188498063</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186067</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N33" t="n">
-        <v>179.0738312465417</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10591,10 +10591,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10670,13 +10670,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>179.0738312465426</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,22 +10904,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>502.5559668112504</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.823926913393</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11074,10 +11074,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>680.3186616794904</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>235.823926913393</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11314,10 +11314,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11381,19 +11381,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084867</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>227.8352342700403</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22603,19 +22603,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>209.2450675478473</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -22758,13 +22758,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.3244398042875</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22789,16 +22789,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>95.76444978932722</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>43.11341799887515</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>134.7564242791754</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23023,7 +23023,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>16.83481595771229</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>75.18834865258982</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -23184,19 +23184,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>7.908298477558702</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>241.2160320404018</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>227.8352342700401</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>99.26503850037365</v>
       </c>
       <c r="I13" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.48239428282091</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>164.3732537148043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23655,10 +23655,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>29.13668869888818</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.85708420411913</v>
+        <v>151.7065594247846</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23746,13 +23746,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>176.615828493317</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>192.4892376370435</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23983,7 +23983,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>143.2020815758265</v>
+        <v>114.4229851924749</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24147,7 +24147,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>85.99884522588803</v>
+        <v>156.8139291504037</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>307.688234239011</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.01995222300252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>115.4666820455249</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,10 +24448,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>38.05082103228534</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24496,10 +24496,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>33.83129404041284</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>20.55604631098657</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24651,7 +24651,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>85.81617233049946</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>97.59686850246354</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24858,7 +24858,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.73259206455626</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>181.3884095178192</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>289.6973385916541</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25125,25 +25125,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>180.0480573960498</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>192.1747295164269</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>124.5933883570991</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25335,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>102.7162907300107</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>86.70496824580715</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>333.0761856651106</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25402,13 +25402,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>171.9750374197098</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25602,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>104.0045570257511</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>284.7258907724527</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.4214787759271</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>118.5727835600601</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>17.54100829227502</v>
+        <v>68.46716635687545</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>165.7080202947456</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335885</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335881</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335883</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655144.4844335885</v>
+        <v>655144.4844335888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655144.4844335885</v>
+        <v>655144.4844335882</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655144.4844335881</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655144.4844335882</v>
+        <v>655144.4844335888</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335885</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655144.4844335883</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335888</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655144.4844335885</v>
+        <v>655144.4844335887</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655144.4844335887</v>
+        <v>655144.4844335888</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>146808.4351127587</v>
       </c>
       <c r="C2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="D2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="E2" t="n">
         <v>146808.4351127586</v>
       </c>
       <c r="F2" t="n">
+        <v>146808.4351127586</v>
+      </c>
+      <c r="G2" t="n">
         <v>146808.4351127587</v>
-      </c>
-      <c r="G2" t="n">
-        <v>146808.4351127586</v>
       </c>
       <c r="H2" t="n">
         <v>146808.4351127586</v>
       </c>
       <c r="I2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="J2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="K2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="L2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="M2" t="n">
         <v>146808.4351127586</v>
@@ -26352,7 +26352,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="O2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="P2" t="n">
         <v>146808.4351127587</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="C4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="D4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="E4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="F4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="H4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="I4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="J4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="K4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="L4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="M4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="N4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="O4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="P4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132880.1101057759</v>
+        <v>-133554.1362319961</v>
       </c>
       <c r="C6" t="n">
-        <v>65315.69588596889</v>
+        <v>64641.66975974885</v>
       </c>
       <c r="D6" t="n">
-        <v>65315.69588596889</v>
+        <v>64641.66975974888</v>
       </c>
       <c r="E6" t="n">
-        <v>98943.29588596885</v>
+        <v>98269.26975974883</v>
       </c>
       <c r="F6" t="n">
-        <v>98943.29588596894</v>
+        <v>98269.26975974883</v>
       </c>
       <c r="G6" t="n">
-        <v>98943.29588596888</v>
+        <v>98269.26975974886</v>
       </c>
       <c r="H6" t="n">
-        <v>98943.29588596888</v>
+        <v>98269.2697597488</v>
       </c>
       <c r="I6" t="n">
-        <v>98943.29588596888</v>
+        <v>98269.26975974886</v>
       </c>
       <c r="J6" t="n">
-        <v>-55796.1384796345</v>
+        <v>-56470.16460585458</v>
       </c>
       <c r="K6" t="n">
-        <v>98943.29588596888</v>
+        <v>98269.26975974892</v>
       </c>
       <c r="L6" t="n">
-        <v>98943.29588596888</v>
+        <v>98269.26975974895</v>
       </c>
       <c r="M6" t="n">
-        <v>98943.29588596888</v>
+        <v>98269.26975974883</v>
       </c>
       <c r="N6" t="n">
-        <v>98943.29588596894</v>
+        <v>98269.26975974889</v>
       </c>
       <c r="O6" t="n">
-        <v>98943.29588596891</v>
+        <v>98269.26975974883</v>
       </c>
       <c r="P6" t="n">
-        <v>98943.29588596891</v>
+        <v>98269.26975974889</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>209.9577475604372</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="N3" t="n">
-        <v>467.8947524111488</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34938,25 +34938,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,13 +35023,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>529.2029588809057</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35184,16 +35184,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>503.4202726513627</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>330.4341341043866</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N12" t="n">
-        <v>417.183853957084</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35661,10 +35661,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835787</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043858</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36132,16 +36132,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>227.4725996515689</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36220,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36366,19 +36366,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>250.0716471098731</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="N27" t="n">
-        <v>414.9454010832013</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36840,13 +36840,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>357.1032624151781</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,10 +36919,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>417.183853957084</v>
+        <v>66.19388044736863</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>495.7446971602789</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692948</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N33" t="n">
-        <v>93.701718392375</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>93.70171839237591</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>417.1838539570837</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940783</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37794,10 +37794,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>148.7405620940783</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38034,10 +38034,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515685</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
